--- a/4.Analysis/Data/raw/day2/phase_004/subj_day2_phase_004.xlsx
+++ b/4.Analysis/Data/raw/day2/phase_004/subj_day2_phase_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t xml:space="preserve">USERID</t>
   </si>
@@ -155,123 +155,126 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_004_subj_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	590502391271391232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	落花殇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2023-11-16 15:36:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1小时23分57秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.181.10.215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此实验时间过长，过程过于枯燥，希望改进一些。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">了解人们对自己的了解程度。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_004_subj_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	598907506583928832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	清尘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2023-11-16 19:26:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54分9秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221.192.179.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D.三个月内</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_004_subj_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	598932304420667392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	哈哈哈55223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2023-11-16 10:51:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59分30秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.134.127.165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.一个月内</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不知道	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_004_subj_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	609032333906935808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	王得鱼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2023-11-18 21:40:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1小时19分10秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.232.18.249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试判断能力和记忆能力	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_004_subj_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	622124635634270208</t>
+  </si>
+  <si>
     <t xml:space="preserve">17</t>
   </si>
   <si>
-    <t xml:space="preserve">11.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_004_subj_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	590502391271391232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	落花殇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-16 15:36:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1小时23分57秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.181.10.215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">此实验时间过长，过程过于枯燥，希望改进一些。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">了解人们对自己的了解程度。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_004_subj_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	598907506583928832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	清尘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-16 19:26:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54分9秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221.192.179.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.三个月内</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_004_subj_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	598932304420667392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	哈哈哈55223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-16 10:51:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59分30秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.134.127.165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.一个月内</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不知道	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_004_subj_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	609032333906935808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	王得鱼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-18 21:40:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1小时19分10秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.232.18.249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试判断能力和记忆能力	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_004_subj_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	622124635634270208</t>
-  </si>
-  <si>
     <t xml:space="preserve">	wahh</t>
   </si>
   <si>
@@ -320,9 +323,6 @@
     <t xml:space="preserve">	634785034254942208</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
     <t xml:space="preserve">	繁星点点</t>
   </si>
   <si>
@@ -420,6 +420,33 @@
   </si>
   <si>
     <t xml:space="preserve">phase_004_subj_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	637378161314627584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	干燥小狗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2023-11-19 11:44:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1小时25分17秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223.246.254.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.半年内</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不是很清楚	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_004_subj_11</t>
   </si>
   <si>
     <t xml:space="preserve">	718788150628974592</t>
@@ -1419,16 +1446,16 @@
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -1437,7 +1464,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s">
         <v>35</v>
@@ -1476,10 +1503,10 @@
         <v>42</v>
       </c>
       <c r="U7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W7" t="s">
         <v>46</v>
@@ -1491,7 +1518,7 @@
         <v>48</v>
       </c>
       <c r="Z7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA7" t="n">
         <v>287</v>
@@ -1499,19 +1526,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -1520,7 +1547,7 @@
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
         <v>35</v>
@@ -1562,7 +1589,7 @@
         <v>66</v>
       </c>
       <c r="V8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W8" t="s">
         <v>46</v>
@@ -1574,7 +1601,7 @@
         <v>48</v>
       </c>
       <c r="Z8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AA8" t="n">
         <v>225</v>
@@ -1582,10 +1609,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>103</v>
@@ -1941,7 +1968,7 @@
         <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
         <v>37</v>
@@ -1953,7 +1980,7 @@
         <v>38</v>
       </c>
       <c r="N13" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
         <v>40</v>
@@ -1974,7 +2001,7 @@
         <v>42</v>
       </c>
       <c r="U13" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="V13" t="s">
         <v>143</v>
@@ -1992,7 +2019,7 @@
         <v>144</v>
       </c>
       <c r="AA13" t="n">
-        <v>570</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14">
@@ -2024,19 +2051,19 @@
         <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s">
         <v>37</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="M14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="O14" t="s">
         <v>40</v>
@@ -2057,10 +2084,10 @@
         <v>42</v>
       </c>
       <c r="U14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="V14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="W14" t="s">
         <v>46</v>
@@ -2072,27 +2099,27 @@
         <v>48</v>
       </c>
       <c r="Z14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AA14" t="n">
-        <v>462</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" t="s">
         <v>156</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>157</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>158</v>
-      </c>
-      <c r="D15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" t="s">
-        <v>160</v>
       </c>
       <c r="F15" t="s">
         <v>32</v>
@@ -2101,7 +2128,7 @@
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I15" t="s">
         <v>35</v>
@@ -2113,13 +2140,13 @@
         <v>37</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="M15" t="s">
         <v>37</v>
       </c>
       <c r="N15" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s">
         <v>40</v>
@@ -2140,10 +2167,10 @@
         <v>42</v>
       </c>
       <c r="U15" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="V15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W15" t="s">
         <v>46</v>
@@ -2155,27 +2182,27 @@
         <v>48</v>
       </c>
       <c r="Z15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AA15" t="n">
-        <v>117</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
@@ -2184,25 +2211,25 @@
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I16" t="s">
         <v>35</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
         <v>37</v>
       </c>
       <c r="L16" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="M16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="O16" t="s">
         <v>40</v>
@@ -2223,7 +2250,7 @@
         <v>42</v>
       </c>
       <c r="U16" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="V16" t="s">
         <v>171</v>
@@ -2241,7 +2268,7 @@
         <v>172</v>
       </c>
       <c r="AA16" t="n">
-        <v>667</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17">
@@ -2273,19 +2300,19 @@
         <v>35</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K17" t="s">
         <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="M17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="O17" t="s">
         <v>40</v>
@@ -2306,10 +2333,10 @@
         <v>42</v>
       </c>
       <c r="U17" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="V17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="W17" t="s">
         <v>46</v>
@@ -2321,27 +2348,27 @@
         <v>48</v>
       </c>
       <c r="Z17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA17" t="n">
-        <v>401</v>
+        <v>667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F18" t="s">
         <v>32</v>
@@ -2350,7 +2377,7 @@
         <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I18" t="s">
         <v>35</v>
@@ -2362,13 +2389,13 @@
         <v>37</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="M18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N18" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s">
         <v>40</v>
@@ -2389,10 +2416,10 @@
         <v>42</v>
       </c>
       <c r="U18" t="s">
+        <v>66</v>
+      </c>
+      <c r="V18" t="s">
         <v>188</v>
-      </c>
-      <c r="V18" t="s">
-        <v>189</v>
       </c>
       <c r="W18" t="s">
         <v>46</v>
@@ -2404,9 +2431,92 @@
         <v>48</v>
       </c>
       <c r="Z18" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
         <v>190</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="B19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s">
+        <v>195</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" t="s">
+        <v>196</v>
+      </c>
+      <c r="O19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19" t="s">
+        <v>43</v>
+      </c>
+      <c r="T19" t="s">
+        <v>42</v>
+      </c>
+      <c r="U19" t="s">
+        <v>197</v>
+      </c>
+      <c r="V19" t="s">
+        <v>198</v>
+      </c>
+      <c r="W19" t="s">
+        <v>46</v>
+      </c>
+      <c r="X19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA19" t="n">
         <v>276</v>
       </c>
     </row>

--- a/4.Analysis/Data/raw/day2/phase_004/subj_day2_phase_004.xlsx
+++ b/4.Analysis/Data/raw/day2/phase_004/subj_day2_phase_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t xml:space="preserve">USERID</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t xml:space="preserve">不知道	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">phase_004_subj_9</t>
@@ -1343,7 +1346,7 @@
         <v>75</v>
       </c>
       <c r="W5" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
         <v>47</v>
@@ -1352,7 +1355,7 @@
         <v>48</v>
       </c>
       <c r="Z5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="n">
         <v>416</v>
@@ -1360,19 +1363,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
@@ -1381,7 +1384,7 @@
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6" t="s">
         <v>35</v>
@@ -1423,10 +1426,10 @@
         <v>42</v>
       </c>
       <c r="V6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W6" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s">
         <v>47</v>
@@ -1435,7 +1438,7 @@
         <v>48</v>
       </c>
       <c r="Z6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA6" t="n">
         <v>670</v>
@@ -1443,19 +1446,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -1464,7 +1467,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
         <v>35</v>
@@ -1503,13 +1506,13 @@
         <v>42</v>
       </c>
       <c r="U7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="V7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W7" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s">
         <v>47</v>
@@ -1518,7 +1521,7 @@
         <v>48</v>
       </c>
       <c r="Z7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA7" t="n">
         <v>287</v>
@@ -1526,19 +1529,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -1547,7 +1550,7 @@
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
         <v>35</v>
@@ -1589,10 +1592,10 @@
         <v>66</v>
       </c>
       <c r="V8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W8" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s">
         <v>47</v>
@@ -1601,7 +1604,7 @@
         <v>48</v>
       </c>
       <c r="Z8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AA8" t="n">
         <v>225</v>
@@ -1609,19 +1612,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
@@ -1630,7 +1633,7 @@
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I9" t="s">
         <v>35</v>
@@ -1669,13 +1672,13 @@
         <v>42</v>
       </c>
       <c r="U9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="V9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W9" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s">
         <v>47</v>
@@ -1684,7 +1687,7 @@
         <v>48</v>
       </c>
       <c r="Z9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA9" t="n">
         <v>455</v>
@@ -1692,19 +1695,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -1713,7 +1716,7 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I10" t="s">
         <v>35</v>
@@ -1752,13 +1755,13 @@
         <v>42</v>
       </c>
       <c r="U10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="W10" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s">
         <v>47</v>
@@ -1767,7 +1770,7 @@
         <v>48</v>
       </c>
       <c r="Z10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA10" t="n">
         <v>355</v>
@@ -1775,19 +1778,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
@@ -1796,7 +1799,7 @@
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -1835,10 +1838,10 @@
         <v>42</v>
       </c>
       <c r="U11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="V11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W11" t="s">
         <v>46</v>
@@ -1850,7 +1853,7 @@
         <v>48</v>
       </c>
       <c r="Z11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA11" t="n">
         <v>70</v>
@@ -1858,19 +1861,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
@@ -1879,7 +1882,7 @@
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I12" t="s">
         <v>35</v>
@@ -1918,10 +1921,10 @@
         <v>42</v>
       </c>
       <c r="U12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="V12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W12" t="s">
         <v>46</v>
@@ -1933,7 +1936,7 @@
         <v>48</v>
       </c>
       <c r="Z12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA12" t="n">
         <v>524</v>
@@ -1941,19 +1944,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
@@ -1962,7 +1965,7 @@
         <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I13" t="s">
         <v>35</v>
@@ -1980,7 +1983,7 @@
         <v>38</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
         <v>40</v>
@@ -2004,7 +2007,7 @@
         <v>42</v>
       </c>
       <c r="V13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W13" t="s">
         <v>46</v>
@@ -2016,7 +2019,7 @@
         <v>48</v>
       </c>
       <c r="Z13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AA13" t="n">
         <v>453</v>
@@ -2024,19 +2027,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
         <v>32</v>
@@ -2045,7 +2048,7 @@
         <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I14" t="s">
         <v>35</v>
@@ -2084,13 +2087,13 @@
         <v>42</v>
       </c>
       <c r="U14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="W14" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s">
         <v>47</v>
@@ -2099,7 +2102,7 @@
         <v>48</v>
       </c>
       <c r="Z14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA14" t="n">
         <v>570</v>
@@ -2107,19 +2110,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F15" t="s">
         <v>32</v>
@@ -2128,7 +2131,7 @@
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I15" t="s">
         <v>35</v>
@@ -2140,13 +2143,13 @@
         <v>37</v>
       </c>
       <c r="L15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M15" t="s">
         <v>37</v>
       </c>
       <c r="N15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s">
         <v>40</v>
@@ -2167,10 +2170,10 @@
         <v>42</v>
       </c>
       <c r="U15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="V15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="W15" t="s">
         <v>46</v>
@@ -2182,7 +2185,7 @@
         <v>48</v>
       </c>
       <c r="Z15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA15" t="n">
         <v>462</v>
@@ -2190,19 +2193,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
@@ -2211,7 +2214,7 @@
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I16" t="s">
         <v>35</v>
@@ -2223,7 +2226,7 @@
         <v>37</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s">
         <v>37</v>
@@ -2253,7 +2256,7 @@
         <v>66</v>
       </c>
       <c r="V16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W16" t="s">
         <v>46</v>
@@ -2265,7 +2268,7 @@
         <v>48</v>
       </c>
       <c r="Z16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AA16" t="n">
         <v>117</v>
@@ -2273,19 +2276,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F17" t="s">
         <v>32</v>
@@ -2294,7 +2297,7 @@
         <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I17" t="s">
         <v>35</v>
@@ -2333,10 +2336,10 @@
         <v>42</v>
       </c>
       <c r="U17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="W17" t="s">
         <v>46</v>
@@ -2348,7 +2351,7 @@
         <v>48</v>
       </c>
       <c r="Z17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA17" t="n">
         <v>667</v>
@@ -2356,19 +2359,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F18" t="s">
         <v>32</v>
@@ -2377,7 +2380,7 @@
         <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I18" t="s">
         <v>35</v>
@@ -2389,13 +2392,13 @@
         <v>37</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M18" t="s">
         <v>37</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s">
         <v>40</v>
@@ -2419,7 +2422,7 @@
         <v>66</v>
       </c>
       <c r="V18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="W18" t="s">
         <v>46</v>
@@ -2431,7 +2434,7 @@
         <v>48</v>
       </c>
       <c r="Z18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA18" t="n">
         <v>401</v>
@@ -2439,19 +2442,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F19" t="s">
         <v>32</v>
@@ -2460,7 +2463,7 @@
         <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I19" t="s">
         <v>35</v>
@@ -2472,13 +2475,13 @@
         <v>37</v>
       </c>
       <c r="L19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s">
         <v>38</v>
       </c>
       <c r="N19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s">
         <v>40</v>
@@ -2499,10 +2502,10 @@
         <v>42</v>
       </c>
       <c r="U19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="V19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W19" t="s">
         <v>46</v>
@@ -2514,7 +2517,7 @@
         <v>48</v>
       </c>
       <c r="Z19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA19" t="n">
         <v>276</v>
